--- a/kansas_2025-11.xlsx
+++ b/kansas_2025-11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\miner-report\Kansas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\miner-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772F065A-B394-4C4D-9C30-ED8D35DA638C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E655EC09-6FE8-4FEA-82C7-E7EA2E8994B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="2220" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="3090" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-11" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Worker</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
   </si>
 </sst>
 </file>
@@ -89,7 +92,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -393,18 +397,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +419,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -425,8 +433,11 @@
       <c r="C2">
         <v>1390</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" s="1">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -436,8 +447,11 @@
       <c r="C3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -447,8 +461,11 @@
       <c r="C4">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -458,8 +475,11 @@
       <c r="C5">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -469,8 +489,11 @@
       <c r="C6">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -479,6 +502,9 @@
       </c>
       <c r="C7">
         <v>1643</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1637</v>
       </c>
     </row>
   </sheetData>

--- a/kansas_2025-11.xlsx
+++ b/kansas_2025-11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\miner-report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\reports\Kansas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E655EC09-6FE8-4FEA-82C7-E7EA2E8994B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF02572F-676F-4517-AFF3-0C8E36982115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="3090" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-11" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Worker</t>
   </si>
@@ -28,6 +28,12 @@
     <t>2025-11-27</t>
   </si>
   <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
     <t>cp369db</t>
   </si>
   <si>
@@ -47,9 +53,6 @@
   </si>
   <si>
     <t>2025-11-26</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
   </si>
 </sst>
 </file>
@@ -397,118 +400,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
         <v>1382</v>
       </c>
       <c r="C2">
         <v>1390</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>1389</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
         <v>8</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
         <v>27</v>
       </c>
       <c r="C4">
         <v>26</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
         <v>114</v>
       </c>
       <c r="C5">
         <v>114</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>111</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
         <v>104</v>
       </c>
       <c r="C6">
         <v>105</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
         <v>1635</v>
       </c>
       <c r="C7">
         <v>1643</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>1637</v>
+      </c>
+      <c r="E7">
+        <v>1669</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/kansas_2025-11.xlsx
+++ b/kansas_2025-11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\reports\Kansas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xujun Yang\Documents\data_scraping\miner-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF02572F-676F-4517-AFF3-0C8E36982115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3BB872-3021-4A8B-9EAD-B62B164319A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Worker</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
   </si>
 </sst>
 </file>
@@ -95,8 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -400,22 +402,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
@@ -427,12 +430,15 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>1382</v>
       </c>
       <c r="C2">
@@ -444,12 +450,15 @@
       <c r="E2">
         <v>1415</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>8</v>
       </c>
       <c r="C3">
@@ -461,12 +470,15 @@
       <c r="E3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>27</v>
       </c>
       <c r="C4">
@@ -478,12 +490,15 @@
       <c r="E4">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>114</v>
       </c>
       <c r="C5">
@@ -495,12 +510,15 @@
       <c r="E5">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>104</v>
       </c>
       <c r="C6">
@@ -512,12 +530,15 @@
       <c r="E6">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>1635</v>
       </c>
       <c r="C7">
@@ -528,6 +549,9 @@
       </c>
       <c r="E7">
         <v>1669</v>
+      </c>
+      <c r="F7">
+        <v>1671</v>
       </c>
     </row>
   </sheetData>
